--- a/biology/Histoire de la zoologie et de la botanique/Percy_Ireland_Lathy/Percy_Ireland_Lathy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Percy_Ireland_Lathy/Percy_Ireland_Lathy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Percy Ireland Lathy est un entomologiste britannique, spécialiste des lépidoptères, né à Tillington dans le Sussex en 1874.
 </t>
@@ -511,7 +523,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Percy Ireland Lathy a vécu à Paris puis à New York après 1928.
 Il a été membre de la Société entomologique de France et de l'Entomological Society of America.
@@ -543,11 +557,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1901 : « An account of a collection of Rhopalocera made at Zomba in British Central Africa ». Transactions of the Entomological Society of London, vol. 1901, p. 19-36.
 1903 : « An account of a collection of Rhopalocera made on the Anambara Creek in Nigeria, West Africa ». Transactions of the Entomological Society of London, vol. 1903, p. 183-206.
-1904 : « A Contribution Towards the Knowledge of the Lepidoptera-Rhopalocera of Dominica, B.W.I. ». Proceedings of the Zoological Society of London, vol. 1, n. 30, p. 450–453, [1].
+1904 : « A Contribution Towards the Knowledge of the Lepidoptera-Rhopalocera of Dominica, B.W.I. ». Proceedings of the Zoological Society of London, vol. 1, n. 30, p. 450–453, .
 1922 : « An account of the Castniinae in the collection of Madame Gaston Fournier (Lepidoptera) ». Annals and Magazine of Natural History, sér. 9, vol. 9, n. 49, p. 68-86.
 1926 : « Notes on the American Theclinae (Lepidoptera) ». Annals and Magazine of Natural History, vol. 17, p. 35–47.
 1932 : « The genus Lamprospilus (Lepidoptera) ». Annals and Magazine of Natural History, vol. 9, p. 180–182.</t>
@@ -578,7 +594,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste non-exhaustive :
 Calospila satyroides (Lathy, 1932)
